--- a/Queue-Worked-Examplexlsx.xlsx
+++ b/Queue-Worked-Examplexlsx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoino\source\repos\CalculationQueue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoino\source\repos\ReOrderableQueue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DBAE06-7C74-41E5-A6B4-D11A355A2F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8196DAC-BB8A-49CD-B30F-739AFD561B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{1DF4CF85-7423-4B34-954B-A76882601B1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>Queue</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Display</t>
+  </si>
+  <si>
+    <t>Rules: Removing a specific item from the queue</t>
+  </si>
+  <si>
+    <t>Remove B</t>
+  </si>
+  <si>
+    <t>No change for items higher in the queue than the item being removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase the position by 1 for items lower in the queue </t>
   </si>
 </sst>
 </file>
@@ -476,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215DB1A1-FBCD-44AE-8678-62E12A1B3168}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,7 +832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -846,7 +858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -868,6 +880,185 @@
       <c r="H18" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Queue-Worked-Examplexlsx.xlsx
+++ b/Queue-Worked-Examplexlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoino\source\repos\ReOrderableQueue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8196DAC-BB8A-49CD-B30F-739AFD561B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE2F12E-6F15-4609-98E0-AF595399A038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{1DF4CF85-7423-4B34-954B-A76882601B1E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1DF4CF85-7423-4B34-954B-A76882601B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="33">
   <si>
     <t>Queue</t>
   </si>
@@ -124,13 +124,22 @@
   </si>
   <si>
     <t xml:space="preserve">Increase the position by 1 for items lower in the queue </t>
+  </si>
+  <si>
+    <t>Rules: Items are added to the end of the queue and the queuePosition is set automatically</t>
+  </si>
+  <si>
+    <t>No change to the queuePosition for items already in the queue</t>
+  </si>
+  <si>
+    <t>The QueuePosition of items added to the end will be set to the length of the queue plus one</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +147,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +168,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,10 +183,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,8 +196,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,20 +518,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215DB1A1-FBCD-44AE-8678-62E12A1B3168}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="88.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="88.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -538,7 +568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -564,7 +594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -593,7 +623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -619,7 +649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -645,7 +675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -668,7 +698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -691,7 +721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -728,7 +758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -754,7 +784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -783,7 +813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -809,7 +839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -832,7 +862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -858,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -881,7 +911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -918,7 +948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -944,17 +974,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
@@ -973,7 +1003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -996,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -1019,7 +1049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -1032,9 +1062,6 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
       <c r="F27" s="1">
         <v>5</v>
       </c>
@@ -1045,7 +1072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -1060,7 +1087,120 @@
       </c>
       <c r="F28" s="1"/>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A33:D36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Queue-Worked-Examplexlsx.xlsx
+++ b/Queue-Worked-Examplexlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoino\source\repos\ReOrderableQueue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE2F12E-6F15-4609-98E0-AF595399A038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2B8213-E728-4420-84A9-1EFDCDED1687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1DF4CF85-7423-4B34-954B-A76882601B1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="32">
   <si>
     <t>Queue</t>
   </si>
@@ -78,30 +78,15 @@
     <t>Move B to P.5</t>
   </si>
   <si>
-    <t>Move D to P.2</t>
-  </si>
-  <si>
-    <t>Move Up</t>
-  </si>
-  <si>
     <t>Move Down</t>
   </si>
   <si>
-    <t>Increase position by 1 for items higher than the current position but lower or equal to the new position</t>
-  </si>
-  <si>
     <t>Decrease position by 1 for items lower than the current position and higher or equal to the new position</t>
   </si>
   <si>
-    <t>No change for items higher in the queue than the new position</t>
-  </si>
-  <si>
     <t>No change for items higher in the queue than current position</t>
   </si>
   <si>
-    <t>Rules: Moving Up in the Queue</t>
-  </si>
-  <si>
     <t>Rules: Moving Down in the Queue</t>
   </si>
   <si>
@@ -133,6 +118,18 @@
   </si>
   <si>
     <t>The QueuePosition of items added to the end will be set to the length of the queue plus one</t>
+  </si>
+  <si>
+    <t>No change for items higher in the queue than the requested position</t>
+  </si>
+  <si>
+    <t>Promote D to P.2</t>
+  </si>
+  <si>
+    <t>Rules: Promote (Moving Up in the Queue)</t>
+  </si>
+  <si>
+    <t>Demote items that are higher than the current position and lower than or equal to the requested position</t>
   </si>
 </sst>
 </file>
@@ -520,15 +517,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215DB1A1-FBCD-44AE-8678-62E12A1B3168}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="8.7109375" style="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="96.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -536,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -565,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -591,7 +588,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -607,9 +604,6 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -620,7 +614,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -646,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -663,7 +657,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
@@ -726,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -755,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -781,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -810,7 +804,7 @@
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -836,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -876,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1">
         <v>5</v>
@@ -916,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -945,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -971,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -988,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -1000,7 +994,7 @@
         <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1092,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1121,7 +1115,7 @@
         <v>9</v>
       </c>
       <c r="J32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1139,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1157,7 +1151,7 @@
         <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">

--- a/Queue-Worked-Examplexlsx.xlsx
+++ b/Queue-Worked-Examplexlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoino\source\repos\ReOrderableQueue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2B8213-E728-4420-84A9-1EFDCDED1687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4857B555-3800-490B-B907-1B4B65FCC6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1DF4CF85-7423-4B34-954B-A76882601B1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{1DF4CF85-7423-4B34-954B-A76882601B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="31">
   <si>
     <t>Queue</t>
   </si>
@@ -75,24 +75,9 @@
     <t>HK</t>
   </si>
   <si>
-    <t>Move B to P.5</t>
-  </si>
-  <si>
-    <t>Move Down</t>
-  </si>
-  <si>
-    <t>Decrease position by 1 for items lower than the current position and higher or equal to the new position</t>
-  </si>
-  <si>
     <t>No change for items higher in the queue than current position</t>
   </si>
   <si>
-    <t>Rules: Moving Down in the Queue</t>
-  </si>
-  <si>
-    <t>No change for items lower in the queue than new position</t>
-  </si>
-  <si>
     <t>No change for items lower in the queue than current position</t>
   </si>
   <si>
@@ -108,9 +93,6 @@
     <t>No change for items higher in the queue than the item being removed</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase the position by 1 for items lower in the queue </t>
-  </si>
-  <si>
     <t>Rules: Items are added to the end of the queue and the queuePosition is set automatically</t>
   </si>
   <si>
@@ -130,6 +112,21 @@
   </si>
   <si>
     <t>Demote items that are higher than the current position and lower than or equal to the requested position</t>
+  </si>
+  <si>
+    <t>Rules: Demote (Moving Down in the Queue)</t>
+  </si>
+  <si>
+    <t>Demote B to P.5</t>
+  </si>
+  <si>
+    <t>Promote items that are lower than the current position and higher than or equal to the requested position</t>
+  </si>
+  <si>
+    <t>No change for items lower in the queue than requested position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promote items lower in the queue than the item being removed </t>
   </si>
 </sst>
 </file>
@@ -517,14 +514,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215DB1A1-FBCD-44AE-8678-62E12A1B3168}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="8.7109375" style="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="96.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -533,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -562,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -588,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -614,7 +611,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -640,7 +637,7 @@
         <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -657,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
@@ -720,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -749,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -775,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -792,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
@@ -804,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -830,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -868,9 +865,6 @@
       </c>
       <c r="D17" t="s">
         <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="1">
         <v>5</v>
@@ -910,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -965,7 +959,7 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -982,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -994,7 +988,7 @@
         <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1086,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1115,7 +1109,7 @@
         <v>9</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1133,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1151,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
